--- a/Extracted_Data.xlsx
+++ b/Extracted_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25244\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AFEC8E-3642-47F8-87BF-1AD15C77E785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0769D2-E31A-4B86-A488-A5655001AC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,18 +86,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Component Extension Issue (25)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Component Failure (23)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Component Selection Issue (16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Component Issue (92)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,6 +307,14 @@
   </si>
   <si>
     <t>Database Design Issue (3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Component Missing Issue (27)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Component Selection Issue (14)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,7 +680,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -800,7 +800,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -808,7 +808,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -817,7 +817,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -826,7 +826,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -835,10 +835,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -846,7 +846,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -855,7 +855,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -864,10 +864,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -875,7 +875,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -884,7 +884,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3"/>
     </row>
@@ -893,7 +893,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3"/>
     </row>
@@ -902,10 +902,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -913,7 +913,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -922,7 +922,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -931,7 +931,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26" s="3"/>
     </row>
@@ -940,10 +940,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -951,7 +951,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" s="3"/>
     </row>
@@ -960,7 +960,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="3"/>
     </row>
@@ -969,7 +969,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C30" s="3"/>
     </row>
@@ -978,7 +978,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" s="3"/>
     </row>
@@ -987,10 +987,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -998,7 +998,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C33" s="3"/>
     </row>
@@ -1007,10 +1007,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1018,7 +1018,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C35" s="3"/>
     </row>
@@ -1027,7 +1027,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" s="3"/>
     </row>
@@ -1036,7 +1036,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C37" s="3"/>
     </row>
@@ -1045,7 +1045,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C38" s="3"/>
     </row>
@@ -1054,10 +1054,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1065,7 +1065,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C40" s="3"/>
     </row>
@@ -1074,10 +1074,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1085,7 +1085,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="3"/>
     </row>
@@ -1094,10 +1094,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1105,7 +1105,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C44" s="3"/>
     </row>
@@ -1114,10 +1114,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1125,7 +1125,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C46" s="3"/>
     </row>
@@ -1134,10 +1134,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1145,7 +1145,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" s="3"/>
     </row>
@@ -1154,7 +1154,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C49" s="3"/>
     </row>
@@ -1163,7 +1163,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C50" s="3"/>
     </row>
@@ -1172,7 +1172,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C51" s="3"/>
     </row>
@@ -1181,10 +1181,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1192,7 +1192,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C53" s="3"/>
     </row>
@@ -1201,10 +1201,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1212,7 +1212,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C55" s="3"/>
     </row>
@@ -1221,18 +1221,12 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C56" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C26"/>
     <mergeCell ref="C47:C51"/>
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="C54:C56"/>
@@ -1242,6 +1236,12 @@
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Extracted_Data.xlsx
+++ b/Extracted_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25244\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0769D2-E31A-4B86-A488-A5655001AC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B562882-F378-4853-B336-EA1F68E725C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,26 +190,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Loss of Documentation (13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Documentation Content Error (12)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Documentation Out of Date (11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incomplete Documentation Content (6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unclear Documentation Description (5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Configuration Issue (45)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,6 +299,22 @@
   </si>
   <si>
     <t>Component Selection Issue (14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing Documentation (13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out of Date Documentation (11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incomplete Documentation (6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unclear Documentation (5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -808,7 +808,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -826,7 +826,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -1007,7 +1007,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>40</v>
@@ -1018,7 +1018,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="3"/>
     </row>
@@ -1027,7 +1027,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C36" s="3"/>
     </row>
@@ -1036,7 +1036,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C37" s="3"/>
     </row>
@@ -1045,7 +1045,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C38" s="3"/>
     </row>
@@ -1054,10 +1054,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1065,7 +1065,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C40" s="3"/>
     </row>
@@ -1074,10 +1074,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1085,7 +1085,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C42" s="3"/>
     </row>
@@ -1094,10 +1094,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1105,7 +1105,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C44" s="3"/>
     </row>
@@ -1114,10 +1114,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1125,7 +1125,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C46" s="3"/>
     </row>
@@ -1134,10 +1134,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1145,7 +1145,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C48" s="3"/>
     </row>
@@ -1154,7 +1154,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C49" s="3"/>
     </row>
@@ -1163,7 +1163,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C50" s="3"/>
     </row>
@@ -1172,7 +1172,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C51" s="3"/>
     </row>
@@ -1181,10 +1181,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1192,7 +1192,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C53" s="3"/>
     </row>
@@ -1201,10 +1201,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1212,7 +1212,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C55" s="3"/>
     </row>
@@ -1221,12 +1221,18 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C56" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C26"/>
     <mergeCell ref="C47:C51"/>
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="C54:C56"/>
@@ -1236,12 +1242,6 @@
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Extracted_Data.xlsx
+++ b/Extracted_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25244\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B562882-F378-4853-B336-EA1F68E725C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ADCA99-8399-4611-A4F5-E36C1C72B486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Web Connection Issue (32)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Server Issue (12)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,6 +311,10 @@
   </si>
   <si>
     <t>Unclear Documentation (5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Network Connection Issue (32)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,7 +680,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -808,7 +808,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -826,7 +826,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -1007,7 +1007,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>40</v>
@@ -1027,7 +1027,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="3"/>
     </row>
@@ -1036,7 +1036,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="3"/>
     </row>
@@ -1045,7 +1045,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="3"/>
     </row>
@@ -1074,7 +1074,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>45</v>
@@ -1085,7 +1085,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="3"/>
     </row>
@@ -1094,10 +1094,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1105,7 +1105,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="3"/>
     </row>
@@ -1114,10 +1114,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1125,7 +1125,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="3"/>
     </row>
@@ -1134,10 +1134,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1145,7 +1145,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" s="3"/>
     </row>
@@ -1154,7 +1154,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="3"/>
     </row>
@@ -1163,7 +1163,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" s="3"/>
     </row>
@@ -1172,7 +1172,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" s="3"/>
     </row>
@@ -1181,10 +1181,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1192,7 +1192,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" s="3"/>
     </row>
@@ -1201,10 +1201,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1212,7 +1212,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" s="3"/>
     </row>
@@ -1221,18 +1221,12 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C26"/>
     <mergeCell ref="C47:C51"/>
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="C54:C56"/>
@@ -1242,6 +1236,12 @@
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Extracted_Data.xlsx
+++ b/Extracted_Data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25244\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ADCA99-8399-4611-A4F5-E36C1C72B486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABD6332-7F85-44DD-84FC-EAFDCDE52B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Issues" sheetId="1" r:id="rId1"/>
+    <sheet name="Causes" sheetId="2" r:id="rId2"/>
+    <sheet name="Solutions" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="152">
   <si>
     <t>ID</t>
   </si>
@@ -315,6 +317,322 @@
   </si>
   <si>
     <t>Network Connection Issue (32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model Incompatibility (32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model Training Problem (31)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outdated Model (26)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model Architecture Problem (17)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model Problem (106)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect Configuration (78)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Network Connection Problem (10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Database Connection Problem (4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configuration and Connection Problem (92)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter Setting and Passing Problem (63)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing Parameter (26)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter Problem (89)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing Feature (42)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect Method Definition and Implementation (39)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feature and Method Problem (81)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low Throughput (21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slow Response (12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low Scalability (7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low Stability (3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low Resource Utilization (3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low Performance Problem (46)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poor Documentation (36)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outdated Documentation (9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Documentation Problem (45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Component Incompatibility (29)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing Component (5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outdated Component (3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Component Problem (37)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource Shortage Problem (23)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource Allocation Problem (4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource Problem (27)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hardware Incompatibility (11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software Environment Incompatibility (10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hardware and Software Environment Incompatibility (21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect Operation Procedure (14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect Method (5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect Instruction (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect Operation (21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Access Problem (7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Illegal Instruction (7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Permission Problem (4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malware Problem (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Security Problem (19)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimize Model Architecture (84）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimize Model Training Technique (64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update Model (50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Stable Version of Model (23)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimize Dataset (15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimize Model (236)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify Parameter (88)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Parameter (23)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Parameter (23)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convert Parameter Type (15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Parameter Verification (6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust Parameter (155)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify Incorrect Operation Procedure (61)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify Configuration (50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reload Project (21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify Incorrect Instruction (12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust Configuration and Operation (144)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add New Component (51)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust Component Integration Strategy (45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimize Component Functionality (16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Stable Version of Component (14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update Component (10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Component (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimize Component (137)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimize Network Connection Management (20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimize Memory Management (19)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimize Message Management (14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimize Process Management (10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimize System Resource Management (63)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Documentation (5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rename Documentation (5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify Documentation (54)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify Description (44)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change Hardware (7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change Software Environment (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change Hardware and Software Environment (9)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1246,4 +1564,673 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A0F575-AB88-425C-965B-F35F2754DE47}">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="49.46484375" customWidth="1"/>
+    <col min="3" max="3" width="65.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C33"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D13163-845F-49F9-ABF7-AA1206A28ADA}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="47.33203125" customWidth="1"/>
+    <col min="3" max="3" width="58.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="C22:C25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Extracted_Data.xlsx
+++ b/Extracted_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25244\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABD6332-7F85-44DD-84FC-EAFDCDE52B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C29C35-6AD8-425B-ABE0-18DA489C4F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="151">
   <si>
     <t>ID</t>
   </si>
@@ -320,30 +320,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Model Incompatibility (32)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model Training Problem (31)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Outdated Model (26)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Model Architecture Problem (17)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Model Problem (106)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incorrect Configuration (78)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Network Connection Problem (10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,34 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Configuration and Connection Problem (92)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parameter Setting and Passing Problem (63)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missing Parameter (26)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parameter Problem (89)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missing Feature (42)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incorrect Method Definition and Implementation (39)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Feature and Method Problem (81)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Low Throughput (21)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,22 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Poor Documentation (36)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Outdated Documentation (9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Documentation Problem (45)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Component Incompatibility (29)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Missing Component (5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -428,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Component Problem (37)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Resource Shortage Problem (23)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,54 +376,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hardware Incompatibility (11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Software Environment Incompatibility (10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hardware and Software Environment Incompatibility (21)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incorrect Operation Procedure (14)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Incorrect Method (5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Incorrect Instruction (2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incorrect Operation (21)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Access Problem (7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Illegal Instruction (7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User Permission Problem (4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Malware Problem (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Security Problem (19)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Optimize Model Architecture (84）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -633,6 +529,106 @@
   </si>
   <si>
     <t>Change Hardware and Software Environment (9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model Problem (116)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configuration and Connection Problem (99)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feature and Method Problem (86)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter Problem (61)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Component Problem (41)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect Operation (26)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hardware and Software Environment Incompatibility (22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Documentation Problem (20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Security Problem (15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model Incompatibility (37)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model Training Problem (32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outdated Model (30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect Configuration (85)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing Feature (43)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect Method Definition and Implementation (43)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter Setting and Passing Problem (43)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing Parameter (18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Component Incompatibility (33)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect Operation Procedure (18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect Instruction (3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hardware Incompatibility (12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poor Documentation (16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outdated Documentation (4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Access Problem (6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Permission Problem (2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1545,6 +1541,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C26"/>
     <mergeCell ref="C47:C51"/>
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="C54:C56"/>
@@ -1554,12 +1556,6 @@
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1570,14 +1566,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A0F575-AB88-425C-965B-F35F2754DE47}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="49.46484375" customWidth="1"/>
     <col min="3" max="3" width="65.1328125" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1596,10 +1593,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1607,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -1616,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -1625,7 +1622,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -1634,10 +1631,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1645,7 +1642,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -1654,7 +1651,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -1663,10 +1660,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1674,19 +1671,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1694,7 +1691,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -1703,10 +1700,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1714,7 +1711,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -1723,7 +1720,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -1732,7 +1729,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -1741,7 +1738,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -1750,10 +1747,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1761,7 +1758,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -1770,27 +1767,27 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>100</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C22" s="3"/>
     </row>
@@ -1799,10 +1796,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1810,7 +1807,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -1819,47 +1816,47 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>106</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>110</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="C29" s="3"/>
     </row>
@@ -1868,10 +1865,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1879,7 +1876,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="C31" s="3"/>
     </row>
@@ -1888,7 +1885,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="C32" s="3"/>
     </row>
@@ -1897,23 +1894,23 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C33" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1924,7 +1921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D13163-845F-49F9-ABF7-AA1206A28ADA}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
@@ -1950,10 +1947,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1961,7 +1958,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -1970,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -1979,7 +1976,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -1988,7 +1985,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -1997,10 +1994,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2008,7 +2005,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -2017,7 +2014,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C9" s="3"/>
     </row>
@@ -2026,7 +2023,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -2035,7 +2032,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -2044,10 +2041,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2055,7 +2052,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -2064,7 +2061,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -2073,7 +2070,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -2082,10 +2079,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2093,7 +2090,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -2102,7 +2099,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -2111,7 +2108,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -2120,7 +2117,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -2129,7 +2126,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C21" s="3"/>
     </row>
@@ -2138,10 +2135,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2149,7 +2146,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C23" s="3"/>
     </row>
@@ -2158,7 +2155,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -2167,7 +2164,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -2176,10 +2173,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2187,7 +2184,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -2196,7 +2193,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C28" s="3"/>
     </row>
@@ -2205,10 +2202,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2216,7 +2213,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C30" s="3"/>
     </row>

--- a/Extracted_Data.xlsx
+++ b/Extracted_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25244\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C29C35-6AD8-425B-ABE0-18DA489C4F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845BE0F8-72BE-4C91-BE7A-DAF9D542F551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="150">
   <si>
     <t>ID</t>
   </si>
@@ -320,10 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Model Architecture Problem (17)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Network Connection Problem (10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,18 +328,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Low Throughput (21)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Slow Response (12)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Low Scalability (7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Low Stability (3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,10 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Low Performance Problem (46)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Missing Component (5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,18 +348,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Resource Shortage Problem (23)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Resource Allocation Problem (4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Resource Problem (27)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Software Environment Incompatibility (10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -532,26 +508,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Model Problem (116)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Configuration and Connection Problem (99)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Feature and Method Problem (86)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parameter Problem (61)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Component Problem (41)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Incorrect Operation (26)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -568,14 +528,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Model Incompatibility (37)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model Training Problem (32)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Outdated Model (30)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -584,26 +536,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Missing Feature (43)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incorrect Method Definition and Implementation (43)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parameter Setting and Passing Problem (43)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Missing Parameter (18)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Component Incompatibility (33)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Incorrect Operation Procedure (18)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -629,6 +565,66 @@
   </si>
   <si>
     <t>User Permission Problem (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model Problem (104)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model Incompatibility (32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model Training Problem (31)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model Architecture Problem (11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feature and Method Problem (93)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing Feature (48)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect Method Definition and Implementation (45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter Problem (72)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter Setting and Passing Problem (54)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low Performance Problem (42)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low Scalability (4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low Throughput (20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Component Problem (36)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource Problem (20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource Shortage Problem (16)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1541,12 +1537,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C26"/>
     <mergeCell ref="C47:C51"/>
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="C54:C56"/>
@@ -1556,6 +1546,12 @@
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1566,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A0F575-AB88-425C-965B-F35F2754DE47}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1593,10 +1589,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1604,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -1613,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -1622,7 +1618,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -1631,10 +1627,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1642,7 +1638,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -1651,7 +1647,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -1660,10 +1656,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1671,7 +1667,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -1680,10 +1676,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1691,7 +1687,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -1700,10 +1696,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1711,7 +1707,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -1720,7 +1716,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -1729,7 +1725,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -1738,7 +1734,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -1747,10 +1743,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1758,7 +1754,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -1767,7 +1763,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -1776,10 +1772,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1787,7 +1783,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C22" s="3"/>
     </row>
@@ -1796,10 +1792,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1807,7 +1803,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -1816,7 +1812,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -1825,10 +1821,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1836,7 +1832,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -1845,10 +1841,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1856,7 +1852,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C29" s="3"/>
     </row>
@@ -1865,10 +1861,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1885,7 +1881,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C32" s="3"/>
     </row>
@@ -1894,23 +1890,23 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C33" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C13:C17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C13:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1947,10 +1943,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1958,7 +1954,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -1967,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -1976,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -1985,7 +1981,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -1994,10 +1990,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2005,7 +2001,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -2014,7 +2010,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C9" s="3"/>
     </row>
@@ -2023,7 +2019,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -2032,7 +2028,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -2041,10 +2037,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2052,7 +2048,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -2061,7 +2057,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -2070,7 +2066,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -2079,10 +2075,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2090,7 +2086,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -2099,7 +2095,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -2108,7 +2104,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -2117,7 +2113,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -2126,7 +2122,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C21" s="3"/>
     </row>
@@ -2135,10 +2131,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2146,7 +2142,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C23" s="3"/>
     </row>
@@ -2155,7 +2151,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -2164,7 +2160,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -2173,10 +2169,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2184,7 +2180,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -2193,7 +2189,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C28" s="3"/>
     </row>
@@ -2202,10 +2198,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2213,7 +2209,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C30" s="3"/>
     </row>

--- a/Extracted_Data.xlsx
+++ b/Extracted_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25244\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845BE0F8-72BE-4C91-BE7A-DAF9D542F551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AC8F67-4941-4808-95D9-608B6591A4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10920" yWindow="3240" windowWidth="12450" windowHeight="10433" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -368,10 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Optimize Model Training Technique (64)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Update Model (50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -484,10 +480,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rename Documentation (5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Modify Documentation (54)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -625,6 +617,14 @@
   </si>
   <si>
     <t>Resource Shortage Problem (16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimize Model Training (64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rename Documents (5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1537,6 +1537,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C26"/>
     <mergeCell ref="C47:C51"/>
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="C54:C56"/>
@@ -1546,12 +1552,6 @@
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1562,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A0F575-AB88-425C-965B-F35F2754DE47}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1589,10 +1589,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1600,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -1609,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -1618,7 +1618,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -1627,10 +1627,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1656,10 +1656,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1667,7 +1667,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -1676,10 +1676,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1687,7 +1687,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -1696,10 +1696,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1716,7 +1716,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -1746,7 +1746,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1772,10 +1772,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1783,7 +1783,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C22" s="3"/>
     </row>
@@ -1792,27 +1792,27 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>121</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -1821,10 +1821,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1832,7 +1832,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -1841,10 +1841,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1852,7 +1852,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C29" s="3"/>
     </row>
@@ -1861,10 +1861,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1881,7 +1881,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C32" s="3"/>
     </row>
@@ -1896,17 +1896,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C28:C29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1917,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D13163-845F-49F9-ABF7-AA1206A28ADA}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1946,7 +1946,7 @@
         <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1954,7 +1954,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -1963,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -1972,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -1981,7 +1981,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -1990,10 +1990,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2001,7 +2001,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -2010,7 +2010,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="3"/>
     </row>
@@ -2019,7 +2019,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -2028,7 +2028,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -2037,10 +2037,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2048,7 +2048,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -2057,7 +2057,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -2066,7 +2066,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -2075,10 +2075,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2086,7 +2086,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -2095,7 +2095,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -2104,7 +2104,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -2113,7 +2113,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -2122,7 +2122,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="3"/>
     </row>
@@ -2131,10 +2131,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2142,7 +2142,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="3"/>
     </row>
@@ -2151,7 +2151,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -2160,7 +2160,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -2169,10 +2169,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2180,7 +2180,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -2189,7 +2189,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="C28" s="3"/>
     </row>
@@ -2198,10 +2198,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2209,7 +2209,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C30" s="3"/>
     </row>

--- a/Extracted_Data.xlsx
+++ b/Extracted_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25244\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AC8F67-4941-4808-95D9-608B6591A4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED979FC-D4E6-4145-B6FB-7787CC37415F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="3240" windowWidth="12450" windowHeight="10433" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10785" yWindow="3578" windowWidth="12450" windowHeight="10432" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -400,10 +400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Add Parameter Verification (6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Adjust Parameter (155)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -625,6 +621,10 @@
   </si>
   <si>
     <t>Rename Documents (5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Parameter Validation (6)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1537,12 +1537,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C26"/>
     <mergeCell ref="C47:C51"/>
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="C54:C56"/>
@@ -1552,6 +1546,12 @@
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1589,10 +1589,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1600,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -1609,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -1618,7 +1618,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -1627,10 +1627,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1656,10 +1656,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1667,7 +1667,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -1676,10 +1676,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1687,7 +1687,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -1696,10 +1696,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1716,7 +1716,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -1746,7 +1746,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1772,10 +1772,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1792,7 +1792,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" s="3"/>
     </row>
@@ -1801,10 +1801,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1821,10 +1821,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1841,10 +1841,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1852,7 +1852,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" s="3"/>
     </row>
@@ -1861,10 +1861,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1881,7 +1881,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32" s="3"/>
     </row>
@@ -1896,17 +1896,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C13:C17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C13:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1917,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D13163-845F-49F9-ABF7-AA1206A28ADA}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1954,7 +1954,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -1993,7 +1993,7 @@
         <v>89</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2028,7 +2028,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -2037,10 +2037,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2048,7 +2048,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -2057,7 +2057,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -2066,7 +2066,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -2075,10 +2075,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2086,7 +2086,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -2095,7 +2095,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -2104,7 +2104,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -2113,7 +2113,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -2122,7 +2122,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" s="3"/>
     </row>
@@ -2131,10 +2131,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2142,7 +2142,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="3"/>
     </row>
@@ -2151,7 +2151,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -2160,7 +2160,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -2169,10 +2169,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2180,7 +2180,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -2189,7 +2189,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" s="3"/>
     </row>
@@ -2198,10 +2198,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2209,7 +2209,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" s="3"/>
     </row>

--- a/Extracted_Data.xlsx
+++ b/Extracted_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25244\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED979FC-D4E6-4145-B6FB-7787CC37415F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4275F6-9E5D-4643-B00F-E8AA2846E376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10785" yWindow="3578" windowWidth="12450" windowHeight="10432" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Model Interoperability Issue (10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Model Test Issue (9)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -625,6 +621,10 @@
   </si>
   <si>
     <t>Add Parameter Validation (6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model Collaboration Issue (10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1018,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1080,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="C9" s="3"/>
     </row>
@@ -1089,7 +1089,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -1098,7 +1098,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -1107,10 +1107,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1118,7 +1118,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -1127,7 +1127,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -1136,7 +1136,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -1145,10 +1145,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1156,7 +1156,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -1174,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1185,7 +1185,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -1194,7 +1194,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="3"/>
     </row>
@@ -1203,7 +1203,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3"/>
     </row>
@@ -1212,10 +1212,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1223,7 +1223,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -1232,7 +1232,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -1241,7 +1241,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3"/>
     </row>
@@ -1250,10 +1250,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1261,7 +1261,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="3"/>
     </row>
@@ -1270,7 +1270,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="3"/>
     </row>
@@ -1279,7 +1279,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="3"/>
     </row>
@@ -1288,7 +1288,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="3"/>
     </row>
@@ -1297,10 +1297,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1308,7 +1308,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="3"/>
     </row>
@@ -1317,10 +1317,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1328,7 +1328,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="3"/>
     </row>
@@ -1337,7 +1337,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="3"/>
     </row>
@@ -1346,7 +1346,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="3"/>
     </row>
@@ -1355,7 +1355,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" s="3"/>
     </row>
@@ -1364,10 +1364,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1375,7 +1375,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="3"/>
     </row>
@@ -1384,10 +1384,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1395,7 +1395,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="3"/>
     </row>
@@ -1404,10 +1404,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1415,7 +1415,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="3"/>
     </row>
@@ -1424,10 +1424,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1435,7 +1435,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="3"/>
     </row>
@@ -1444,10 +1444,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1455,7 +1455,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="3"/>
     </row>
@@ -1464,7 +1464,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" s="3"/>
     </row>
@@ -1473,7 +1473,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" s="3"/>
     </row>
@@ -1482,7 +1482,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="3"/>
     </row>
@@ -1491,10 +1491,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1502,7 +1502,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" s="3"/>
     </row>
@@ -1511,10 +1511,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1522,7 +1522,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55" s="3"/>
     </row>
@@ -1531,12 +1531,18 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C26"/>
     <mergeCell ref="C47:C51"/>
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="C54:C56"/>
@@ -1546,12 +1552,6 @@
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1589,10 +1589,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1600,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -1609,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -1618,7 +1618,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -1627,10 +1627,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1638,7 +1638,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -1647,7 +1647,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -1656,10 +1656,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1667,7 +1667,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -1676,10 +1676,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1687,7 +1687,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -1696,10 +1696,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1707,7 +1707,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -1716,7 +1716,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -1725,7 +1725,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -1734,7 +1734,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -1743,10 +1743,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1754,7 +1754,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -1763,7 +1763,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -1772,10 +1772,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1783,7 +1783,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="3"/>
     </row>
@@ -1792,7 +1792,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" s="3"/>
     </row>
@@ -1801,10 +1801,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1812,7 +1812,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -1821,10 +1821,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1832,7 +1832,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -1841,10 +1841,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1852,7 +1852,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" s="3"/>
     </row>
@@ -1861,10 +1861,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1872,7 +1872,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="3"/>
     </row>
@@ -1881,7 +1881,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C32" s="3"/>
     </row>
@@ -1890,23 +1890,23 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C13:C17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C13:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1917,7 +1917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D13163-845F-49F9-ABF7-AA1206A28ADA}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1943,10 +1943,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1954,7 +1954,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -1963,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -1972,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -1981,7 +1981,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -1990,10 +1990,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2001,7 +2001,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -2010,7 +2010,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="3"/>
     </row>
@@ -2019,7 +2019,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -2028,7 +2028,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -2037,10 +2037,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2048,7 +2048,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -2057,7 +2057,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -2066,7 +2066,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -2075,10 +2075,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2086,7 +2086,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -2095,7 +2095,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -2104,7 +2104,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -2113,7 +2113,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -2122,7 +2122,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="3"/>
     </row>
@@ -2131,10 +2131,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2142,7 +2142,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="3"/>
     </row>
@@ -2151,7 +2151,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -2160,7 +2160,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -2169,10 +2169,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2180,7 +2180,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -2189,7 +2189,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C28" s="3"/>
     </row>
@@ -2198,10 +2198,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -2209,7 +2209,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" s="3"/>
     </row>
